--- a/3D_Swife_BlockBreaker/CheckList.xlsx
+++ b/3D_Swife_BlockBreaker/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장희완\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장희완\Downloads\UnityProjects\3D_Swife_BlockBreaker\3D_Swife_BlockBreaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9AB04EC-C5BF-490E-927C-E34A1A56EBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD49F-57E6-49BF-B2F2-EF4ECBF3333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="990" windowWidth="19935" windowHeight="15015" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
+    <workbookView xWindow="3105" yWindow="1515" windowWidth="19935" windowHeight="15015" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>3D Swife BlockBreaker CheckList</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,26 @@
   </si>
   <si>
     <t>해결?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석달기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공-&gt; 마우스 만들었는데 날리고나서 선이 안지워짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 이동 만들었는데 영… 만족스럽지 못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,38 +242,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6408292-40C0-4D4A-997C-D219983F4922}">
-  <dimension ref="C3:I16"/>
+  <dimension ref="C3:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,118 +616,144 @@
     </row>
     <row r="5" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="10"/>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3D_Swife_BlockBreaker/CheckList.xlsx
+++ b/3D_Swife_BlockBreaker/CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장희완\Downloads\UnityProjects\3D_Swife_BlockBreaker\3D_Swife_BlockBreaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD49F-57E6-49BF-B2F2-EF4ECBF3333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A49C5-0C0F-4ECF-BDD2-2204E2E47E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1515" windowWidth="19935" windowHeight="15015" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
+    <workbookView xWindow="28680" yWindow="-5715" windowWidth="15990" windowHeight="24840" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>3D Swife BlockBreaker CheckList</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>카메라 이동 만들었는데 영… 만족스럽지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작감 FROG네요 WASD도 마찬가지에요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,8 +291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +611,7 @@
   <dimension ref="C3:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +636,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -636,7 +651,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +664,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,10 +672,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -673,7 +690,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -684,19 +701,29 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -709,7 +736,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,7 +747,7 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -733,7 +760,7 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>

--- a/3D_Swife_BlockBreaker/CheckList.xlsx
+++ b/3D_Swife_BlockBreaker/CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장희완\Downloads\UnityProjects\3D_Swife_BlockBreaker\3D_Swife_BlockBreaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A49C5-0C0F-4ECF-BDD2-2204E2E47E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EEA4B-B584-446D-8BE3-DE9869245368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5715" windowWidth="15990" windowHeight="24840" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
+    <workbookView xWindow="29820" yWindow="-1530" windowWidth="10905" windowHeight="15015" xr2:uid="{F0E698B1-FD49-40EA-990E-E38562D012DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기준 : v_0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공이 다 떨어지기 전에 내 공이 움직인다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>조작감 FROG네요 WASD도 마찬가지에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 : v_0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,9 +292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +611,7 @@
   <dimension ref="C3:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,73 +626,73 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -702,32 +702,32 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
-        <v>11</v>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -736,9 +736,9 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -747,34 +747,34 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
